--- a/data/emissions_cost.xlsx
+++ b/data/emissions_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E416213-1BBC-4813-9427-8899AE01AED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CC4FD5-3C9A-4121-8078-2000E074258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="2568" windowWidth="21600" windowHeight="11328" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marginal" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="other1" sheetId="3" r:id="rId3"/>
     <sheet name="other2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>class</t>
   </si>
@@ -455,22 +466,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -516,7 +527,10 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>500</v>
       </c>
@@ -536,7 +550,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -559,7 +573,10 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5">
         <v>1500</v>
       </c>
@@ -579,7 +596,10 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6">
         <v>3000</v>
       </c>
@@ -599,7 +619,10 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7">
         <v>3000</v>
       </c>
@@ -619,7 +642,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -642,7 +665,10 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9">
         <v>5000</v>
       </c>
@@ -662,7 +688,10 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="B10">
         <v>15000</v>
       </c>
@@ -682,7 +711,10 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>15000</v>
       </c>
@@ -716,12 +748,12 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -735,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -749,7 +781,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -776,12 +808,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -795,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -809,7 +841,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -823,7 +855,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -846,13 +878,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A040B832-850D-4C40-9310-00058E91C5D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -869,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>

--- a/data/emissions_cost.xlsx
+++ b/data/emissions_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CC4FD5-3C9A-4121-8078-2000E074258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4A38F-11FB-4205-BE1C-D546E0899C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marginal" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Short-haul</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -62,16 +56,10 @@
     <t>Embraer 170</t>
   </si>
   <si>
-    <t>Medium-haul</t>
-  </si>
-  <si>
     <t>Airbus 320</t>
   </si>
   <si>
     <t>Boeing 737</t>
-  </si>
-  <si>
-    <t>Long-haul</t>
   </si>
   <si>
     <t>Airbus 340</t>
@@ -464,273 +452,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>120</v>
-      </c>
-      <c r="F2">
-        <v>0.33</v>
-      </c>
-      <c r="G2">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>0.36</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4">
+        <v>196</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>162</v>
-      </c>
-      <c r="F3">
-        <v>0.36</v>
-      </c>
-      <c r="G3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>0.13</v>
+      </c>
+      <c r="F5">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
+        <v>0.06</v>
+      </c>
+      <c r="F6">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>290</v>
+      </c>
+      <c r="E7">
+        <v>0.08</v>
+      </c>
+      <c r="F7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1500</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8">
+        <v>595</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>196</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
-      </c>
-      <c r="G4">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D9">
+        <v>987</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>219</v>
-      </c>
-      <c r="F5">
-        <v>0.13</v>
-      </c>
-      <c r="G5">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D10">
+        <v>843</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="F10">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15000</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>260</v>
-      </c>
-      <c r="F6">
-        <v>0.06</v>
-      </c>
-      <c r="G6">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>290</v>
-      </c>
-      <c r="F7">
-        <v>0.08</v>
-      </c>
-      <c r="G7">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>595</v>
-      </c>
-      <c r="F8">
-        <v>0.04</v>
-      </c>
-      <c r="G8">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>5000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>987</v>
-      </c>
-      <c r="F9">
-        <v>0.05</v>
-      </c>
-      <c r="G9">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>15000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>843</v>
-      </c>
-      <c r="F10">
+      <c r="D11">
+        <v>1397</v>
+      </c>
+      <c r="E11">
         <v>0.02</v>
       </c>
-      <c r="G10">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>15000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1397</v>
-      </c>
       <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
         <v>3.22</v>
       </c>
     </row>
@@ -755,21 +709,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -783,7 +737,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>185</v>
@@ -815,21 +769,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1.1000000000000001</v>
@@ -843,7 +797,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.4</v>
@@ -857,7 +811,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>6.6</v>
@@ -886,24 +840,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>12.9</v>

--- a/data/emissions_cost.xlsx
+++ b/data/emissions_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E416213-1BBC-4813-9427-8899AE01AED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4A38F-11FB-4205-BE1C-D546E0899C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="2568" windowWidth="21600" windowHeight="11328" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marginal" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,32 @@
     <sheet name="other1" sheetId="3" r:id="rId3"/>
     <sheet name="other2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Short-haul</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -51,16 +56,10 @@
     <t>Embraer 170</t>
   </si>
   <si>
-    <t>Medium-haul</t>
-  </si>
-  <si>
     <t>Airbus 320</t>
   </si>
   <si>
     <t>Boeing 737</t>
-  </si>
-  <si>
-    <t>Long-haul</t>
   </si>
   <si>
     <t>Airbus 340</t>
@@ -453,252 +452,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>120</v>
-      </c>
-      <c r="F2">
-        <v>0.33</v>
-      </c>
-      <c r="G2">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>0.36</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4">
+        <v>196</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>162</v>
-      </c>
-      <c r="F3">
-        <v>0.36</v>
-      </c>
-      <c r="G3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>0.13</v>
+      </c>
+      <c r="F5">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
+        <v>0.06</v>
+      </c>
+      <c r="F6">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>290</v>
+      </c>
+      <c r="E7">
+        <v>0.08</v>
+      </c>
+      <c r="F7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1500</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8">
+        <v>595</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>196</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
-      </c>
-      <c r="G4">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>219</v>
-      </c>
-      <c r="F5">
-        <v>0.13</v>
-      </c>
-      <c r="G5">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9">
+        <v>987</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>843</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="F10">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15000</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>260</v>
-      </c>
-      <c r="F6">
-        <v>0.06</v>
-      </c>
-      <c r="G6">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>290</v>
-      </c>
-      <c r="F7">
-        <v>0.08</v>
-      </c>
-      <c r="G7">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>595</v>
-      </c>
-      <c r="F8">
-        <v>0.04</v>
-      </c>
-      <c r="G8">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>987</v>
-      </c>
-      <c r="F9">
-        <v>0.05</v>
-      </c>
-      <c r="G9">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>15000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>843</v>
-      </c>
-      <c r="F10">
+      <c r="D11">
+        <v>1397</v>
+      </c>
+      <c r="E11">
         <v>0.02</v>
       </c>
-      <c r="G10">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>15000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1397</v>
-      </c>
       <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
         <v>3.22</v>
       </c>
     </row>
@@ -716,28 +702,28 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -749,9 +735,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>185</v>
@@ -776,28 +762,28 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1.1000000000000001</v>
@@ -809,9 +795,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.4</v>
@@ -823,9 +809,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>6.6</v>
@@ -846,32 +832,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A040B832-850D-4C40-9310-00058E91C5D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2">
         <v>12.9</v>

--- a/data/emissions_cost.xlsx
+++ b/data/emissions_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4A38F-11FB-4205-BE1C-D546E0899C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9439576A-F01F-4DDC-8A9E-E026619944A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marginal" sheetId="1" r:id="rId1"/>
@@ -454,21 +454,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -548,7 +548,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1500</v>
       </c>
@@ -568,7 +568,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -608,7 +608,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -628,7 +628,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15000</v>
       </c>
@@ -668,7 +668,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15000</v>
       </c>
@@ -699,15 +699,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -721,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -735,7 +735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -759,15 +759,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -781,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -795,7 +795,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -809,7 +809,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -832,13 +832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A040B832-850D-4C40-9310-00058E91C5D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -855,7 +855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/data/emissions_cost.xlsx
+++ b/data/emissions_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9439576A-F01F-4DDC-8A9E-E026619944A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461164D-BE18-4CB5-A6C0-A478BA128FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marginal" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="other1" sheetId="3" r:id="rId3"/>
     <sheet name="other2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="factor16">'[1]basic assumptions'!$D$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -141,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,8 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +199,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="basic assumptions"/>
+      <sheetName val="Cancellation cost"/>
+      <sheetName val="Cancellation_Diversion"/>
+      <sheetName val="Cost of  Delay"/>
+      <sheetName val="Aircraft operating costs"/>
+      <sheetName val="Passenger time value"/>
+      <sheetName val="VSL"/>
+      <sheetName val="Cost of noise"/>
+      <sheetName val="cost of emissions"/>
+      <sheetName val="noise cost airports (not used)"/>
+      <sheetName val="Average Pass Flight"/>
+      <sheetName val="exch rate "/>
+      <sheetName val="cost of fuel (not used)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="60">
+          <cell r="D60">
+            <v>1.2934663341645884</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +513,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +556,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>120</v>
-      </c>
-      <c r="E2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>1.68</v>
+      <c r="D2" s="2">
+        <v>130.64009975062342</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.36217057356608479</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.8367221945137155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,14 +576,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>162</v>
-      </c>
-      <c r="E3">
-        <v>0.36</v>
-      </c>
-      <c r="F3">
-        <v>1.8</v>
+      <c r="D3" s="2">
+        <v>177.20488778054863</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.38803990024937651</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.9660688279301746</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,14 +596,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>196</v>
-      </c>
-      <c r="E4">
-        <v>0.08</v>
-      </c>
-      <c r="F4">
-        <v>1.32</v>
+      <c r="D4" s="2">
+        <v>213.42194513715708</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.0542643391521196E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.4357476309226933</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,14 +616,14 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>219</v>
-      </c>
-      <c r="E5">
-        <v>0.13</v>
-      </c>
-      <c r="F5">
-        <v>1.87</v>
+      <c r="D5" s="2">
+        <v>239.29127182044886</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.14228129675810472</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.04367680798005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,14 +636,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>260</v>
-      </c>
-      <c r="E6">
-        <v>0.06</v>
-      </c>
-      <c r="F6">
-        <v>1.74</v>
+      <c r="D6" s="2">
+        <v>283.26912718204488</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.4673316708229428E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.9013955112219449</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,14 +656,14 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>290</v>
-      </c>
-      <c r="E7">
-        <v>0.08</v>
-      </c>
-      <c r="F7">
-        <v>2.48</v>
+      <c r="D7" s="2">
+        <v>316.89925187032418</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.0542643391521196E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.7033446384039896</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,14 +676,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>595</v>
-      </c>
-      <c r="E8">
-        <v>0.04</v>
-      </c>
-      <c r="F8">
-        <v>2.0099999999999998</v>
+      <c r="D8" s="2">
+        <v>649.3200997506234</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.8803990024937653E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.1988927680798005</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,14 +696,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>987</v>
-      </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>2.2799999999999998</v>
+      <c r="D9" s="2">
+        <v>1077.4574563591023</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.1738653366583537E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.4834553615960098</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,14 +716,14 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>843</v>
-      </c>
-      <c r="E10">
-        <v>0.02</v>
-      </c>
-      <c r="F10">
-        <v>2.86</v>
+      <c r="D10" s="2">
+        <v>919.65456359102234</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.5869326683291768E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.1172538653366582</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,14 +736,14 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>1397</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>3.22</v>
+      <c r="D11" s="2">
+        <v>1525</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5869326683291768E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5182284289276806</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +757,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,28 +783,28 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>71</v>
-      </c>
-      <c r="C2">
-        <v>119</v>
-      </c>
-      <c r="D2">
-        <v>224</v>
+      <c r="B2" s="2">
+        <v>77.607980049875309</v>
+      </c>
+      <c r="C2" s="2">
+        <v>129.34663341645884</v>
+      </c>
+      <c r="D2" s="2">
+        <v>244.46513715710722</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>185</v>
-      </c>
-      <c r="C3">
-        <v>319</v>
-      </c>
-      <c r="D3">
-        <v>590</v>
+      <c r="B3" s="2">
+        <v>201.7807481296758</v>
+      </c>
+      <c r="C3" s="2">
+        <v>347.94244389027432</v>
+      </c>
+      <c r="D3" s="2">
+        <v>644.14623441396509</v>
       </c>
     </row>
   </sheetData>
@@ -759,12 +817,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,42 +845,42 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-      <c r="D2">
-        <v>6.6</v>
+      <c r="B2" s="1">
+        <v>1.228793017456359</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3710743142144639</v>
+      </c>
+      <c r="D2" s="2">
+        <v>754.09087281795507</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>2.4</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>14.4</v>
+      <c r="B3" s="1">
+        <v>2.7162793017456357</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90542643391521183</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1650.4630423940148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>6.6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>80.599999999999994</v>
+      <c r="B4" s="1">
+        <v>7.5409087281795504</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1770543640897755</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9249.5777556109715</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +893,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,20 +919,26 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
-        <v>12.9</v>
-      </c>
-      <c r="C2">
-        <v>1.4</v>
-      </c>
-      <c r="D2">
-        <v>12.9</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
+      <c r="B2" s="2">
+        <v>14.098783042394015</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.5521596009975061</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14.098783042394015</v>
+      </c>
+      <c r="E2" s="2">
+        <v>25.093246882793014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>